--- a/biology/Botanique/Bombax/Bombax.xlsx
+++ b/biology/Botanique/Bombax/Bombax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bombax est un genre d'arbres de la famille des Bombacaceae, selon la classification classique, ou de celle des Malvaceae, selon la classification phylogénétique.
 Ses espèces vivent en Afrique et en Asie du Sud-Est. Leur bois est léger. Leurs fleurs sont charnues. Le tronc est muni d'épines. Comme beaucoup d'arbres de la famille des Bombacaceae, les gousses des fruits produisent du kapok.
@@ -513,7 +525,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bombax buonopozense P.Beauv.
 Bombax ceiba L. - Simal, Fromager
@@ -546,7 +560,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Bombax mossambicense est une espèce en danger qui est donc protégée.
 </t>
